--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H2">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I2">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J2">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N2">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O2">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P2">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q2">
-        <v>4.696931596701666</v>
+        <v>2.319373414648889</v>
       </c>
       <c r="R2">
-        <v>42.272384370315</v>
+        <v>20.87436073184</v>
       </c>
       <c r="S2">
-        <v>0.07529198922613099</v>
+        <v>0.08987183533766718</v>
       </c>
       <c r="T2">
-        <v>0.07529198922613101</v>
+        <v>0.08987183533766718</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H3">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I3">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J3">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.124011</v>
       </c>
       <c r="O3">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P3">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q3">
-        <v>0.008498019123</v>
+        <v>0.013249404135</v>
       </c>
       <c r="R3">
-        <v>0.07648217210699999</v>
+        <v>0.119244637215</v>
       </c>
       <c r="S3">
-        <v>0.0001362235644865857</v>
+        <v>0.0005133922201670077</v>
       </c>
       <c r="T3">
-        <v>0.0001362235644865857</v>
+        <v>0.0005133922201670077</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H4">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I4">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J4">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N4">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O4">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P4">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q4">
-        <v>1.030335839467</v>
+        <v>1.165449900572222</v>
       </c>
       <c r="R4">
-        <v>9.273022555202999</v>
+        <v>10.48904910515</v>
       </c>
       <c r="S4">
-        <v>0.0165163220556421</v>
+        <v>0.04515923175500538</v>
       </c>
       <c r="T4">
-        <v>0.0165163220556421</v>
+        <v>0.04515923175500538</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.287105</v>
       </c>
       <c r="I5">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J5">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N5">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O5">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P5">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q5">
-        <v>25.03385938605278</v>
+        <v>7.928766072142221</v>
       </c>
       <c r="R5">
-        <v>225.304734474475</v>
+        <v>71.35889464927999</v>
       </c>
       <c r="S5">
-        <v>0.4012937025752652</v>
+        <v>0.3072264062207157</v>
       </c>
       <c r="T5">
-        <v>0.4012937025752653</v>
+        <v>0.3072264062207157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.287105</v>
       </c>
       <c r="I6">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J6">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.124011</v>
       </c>
       <c r="O6">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P6">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q6">
         <v>0.04529301979499999</v>
@@ -818,10 +818,10 @@
         <v>0.407637178155</v>
       </c>
       <c r="S6">
-        <v>0.0007260488019069362</v>
+        <v>0.001755028660435927</v>
       </c>
       <c r="T6">
-        <v>0.0007260488019069362</v>
+        <v>0.001755028660435927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.287105</v>
       </c>
       <c r="I7">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J7">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N7">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O7">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P7">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q7">
-        <v>5.491517599221667</v>
+        <v>3.984084482505555</v>
       </c>
       <c r="R7">
-        <v>49.423658392995</v>
+        <v>35.85676034255</v>
       </c>
       <c r="S7">
-        <v>0.08802923257516806</v>
+        <v>0.1543766011637663</v>
       </c>
       <c r="T7">
-        <v>0.08802923257516806</v>
+        <v>0.1543766011637663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H8">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I8">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J8">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.84733166666667</v>
+        <v>7.236245333333333</v>
       </c>
       <c r="N8">
-        <v>68.541995</v>
+        <v>21.708736</v>
       </c>
       <c r="O8">
-        <v>0.8188848782804395</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="P8">
-        <v>0.8188848782804397</v>
+        <v>0.6630432242917509</v>
       </c>
       <c r="Q8">
-        <v>21.35361120118611</v>
+        <v>6.863392968369777</v>
       </c>
       <c r="R8">
-        <v>192.182500810675</v>
+        <v>61.770536715328</v>
       </c>
       <c r="S8">
-        <v>0.3422991864790434</v>
+        <v>0.265944982733368</v>
       </c>
       <c r="T8">
-        <v>0.3422991864790434</v>
+        <v>0.265944982733368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H9">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I9">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J9">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.124011</v>
       </c>
       <c r="O9">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="P9">
-        <v>0.00148158413889814</v>
+        <v>0.003787629702975075</v>
       </c>
       <c r="Q9">
-        <v>0.038634455835</v>
+        <v>0.039207083517</v>
       </c>
       <c r="R9">
-        <v>0.347710102515</v>
+        <v>0.352863751653</v>
       </c>
       <c r="S9">
-        <v>0.0006193117725046179</v>
+        <v>0.001519208822372141</v>
       </c>
       <c r="T9">
-        <v>0.0006193117725046178</v>
+        <v>0.001519208822372141</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H10">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I10">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J10">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.011873</v>
+        <v>3.636103333333333</v>
       </c>
       <c r="N10">
-        <v>15.035619</v>
+        <v>10.90831</v>
       </c>
       <c r="O10">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="P10">
-        <v>0.1796335375806623</v>
+        <v>0.3331691460052741</v>
       </c>
       <c r="Q10">
-        <v>4.684205096381667</v>
+        <v>3.448750685014445</v>
       </c>
       <c r="R10">
-        <v>42.157845867435</v>
+        <v>31.03875616513</v>
       </c>
       <c r="S10">
-        <v>0.07508798294985211</v>
+        <v>0.1336333130865024</v>
       </c>
       <c r="T10">
-        <v>0.07508798294985211</v>
+        <v>0.1336333130865024</v>
       </c>
     </row>
   </sheetData>
